--- a/mobile/src/main/resources/Config.xlsx
+++ b/mobile/src/main/resources/Config.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RunMode</t>
   </si>
@@ -47,28 +47,19 @@
     <t>yes</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>wild1</t>
-  </si>
-  <si>
     <t>DEBUG</t>
   </si>
   <si>
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>test2</t>
   </si>
   <si>
-    <t>1</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -77,10 +68,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -117,11 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,24 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,72 +423,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mobile/src/main/resources/Config.xlsx
+++ b/mobile/src/main/resources/Config.xlsx
@@ -56,10 +56,10 @@
     <t>Sanity.xlsx</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>wild1</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,13 +428,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
